--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Extension created as part of OncoFAIR containing the notion of solute. 
+Extension créée dans le cadre d'OncoFAIR contenant la notion de soluté.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,6 +251,9 @@
 </t>
   </si>
   <si>
+    <t>True if the component prescribed is solute in the prescription element</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
@@ -343,7 +347,7 @@
 </t>
   </si>
   <si>
-    <t>est Véhiculé</t>
+    <t>estVehicule</t>
   </si>
 </sst>
 </file>
@@ -841,7 +845,7 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -907,7 +911,7 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>74</v>
@@ -918,10 +922,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -932,7 +936,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -944,13 +948,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1001,16 +1005,16 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>74</v>
@@ -1019,15 +1023,15 @@
         <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1050,13 +1054,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1095,19 +1099,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1119,7 +1123,7 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1130,10 +1134,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1141,10 +1145,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1156,16 +1160,16 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1215,13 +1219,13 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1233,15 +1237,15 @@
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1252,7 +1256,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1264,13 +1268,13 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1321,25 +1325,25 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:OncoFAIRMedicationRequestComponent</t>
+    <t>element:MedicationRequest</t>
   </si>
   <si>
     <t>ID</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T15:16:11+00:00</t>
+    <t>2024-07-01T07:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -236,9 +242,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -581,21 +584,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -643,6 +646,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -702,650 +713,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-mr-component-solute.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
